--- a/Design/Excel/GameHot/Datas/__tables__.xlsx
+++ b/Design/Excel/GameHot/Datas/__tables__.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="12615"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -189,11 +176,23 @@
   <si>
     <t>Weapon.xlsx</t>
   </si>
+  <si>
+    <t>DTHero</t>
+  </si>
+  <si>
+    <t>DRHero</t>
+  </si>
+  <si>
+    <t>Hero.xlsx</t>
+  </si>
+  <si>
+    <t>c,e,s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1142,13 +1141,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="29.1083333333333" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -1359,6 +1358,23 @@
         <v>31</v>
       </c>
     </row>
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="OneConfig.xlsx"/>

--- a/Design/Excel/GameHot/Datas/__tables__.xlsx
+++ b/Design/Excel/GameHot/Datas/__tables__.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -103,27 +116,7 @@
     <t>DROneConfig</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="等线"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>One</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="等线"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Config.xlsx</t>
-    </r>
+    <t>OneConfig.xlsx</t>
   </si>
   <si>
     <t>one</t>
@@ -177,10 +170,7 @@
     <t>Weapon.xlsx</t>
   </si>
   <si>
-    <t>DTHero</t>
-  </si>
-  <si>
-    <t>DRHero</t>
+    <t>Hero</t>
   </si>
   <si>
     <t>Hero.xlsx</t>
@@ -192,14 +182,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,13 +202,6 @@
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -679,144 +662,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1261,7 +1241,7 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="s">
@@ -1301,8 +1281,8 @@
       <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" t="s">
         <v>31</v>
       </c>
@@ -1358,27 +1338,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" customFormat="1" spans="2:8">
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
         <v>49</v>
-      </c>
-      <c r="H10" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="OneConfig.xlsx"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Design/Excel/GameHot/Datas/__tables__.xlsx
+++ b/Design/Excel/GameHot/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -110,67 +110,10 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>DTOneConfig</t>
-  </si>
-  <si>
-    <t>DROneConfig</t>
-  </si>
-  <si>
-    <t>OneConfig.xlsx</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>c,e</t>
-  </si>
-  <si>
-    <t>DTAircraft</t>
-  </si>
-  <si>
-    <t>DRAircraft</t>
-  </si>
-  <si>
-    <t>Aircraft.xlsx</t>
-  </si>
-  <si>
-    <t>DTArmor</t>
-  </si>
-  <si>
-    <t>DRArmor</t>
-  </si>
-  <si>
-    <t>Armor.xlsx</t>
-  </si>
-  <si>
-    <t>DTAsteroid</t>
-  </si>
-  <si>
-    <t>DRAsteroid</t>
-  </si>
-  <si>
-    <t>Asteroid.xlsx</t>
-  </si>
-  <si>
-    <t>DTThruster</t>
-  </si>
-  <si>
-    <t>DRThruster</t>
-  </si>
-  <si>
-    <t>Thruster.xlsx</t>
-  </si>
-  <si>
-    <t>DTWeapon</t>
-  </si>
-  <si>
-    <t>DRWeapon</t>
-  </si>
-  <si>
-    <t>Weapon.xlsx</t>
-  </si>
-  <si>
-    <t>Hero</t>
+    <t>DTHero</t>
+  </si>
+  <si>
+    <t>DRHero</t>
   </si>
   <si>
     <t>Hero.xlsx</t>
@@ -792,14 +735,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1121,13 +1061,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="29.1083333333333" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -1231,7 +1171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" customFormat="1" spans="2:8">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -1244,115 +1184,8 @@
       <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="2:8">
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Excel/GameHot/Datas/__tables__.xlsx
+++ b/Design/Excel/GameHot/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="12615"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>Weapon.xlsx</t>
+  </si>
+  <si>
+    <t>DTHero</t>
+  </si>
+  <si>
+    <t>DRHero</t>
+  </si>
+  <si>
+    <t>Hero.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1142,13 +1151,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="29.1083333333333" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -1359,6 +1368,23 @@
         <v>31</v>
       </c>
     </row>
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="OneConfig.xlsx"/>

--- a/Design/Excel/GameHot/Datas/__tables__.xlsx
+++ b/Design/Excel/GameHot/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Hero.xlsx</t>
+  </si>
+  <si>
+    <t>c,e,s</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1157,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1382,7 +1385,7 @@
         <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Excel/GameHot/Datas/__tables__.xlsx
+++ b/Design/Excel/GameHot/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -200,6 +200,15 @@
   </si>
   <si>
     <t>c,e,s</t>
+  </si>
+  <si>
+    <t>DTCardPile</t>
+  </si>
+  <si>
+    <t>DRCardPile</t>
+  </si>
+  <si>
+    <t>CardPile.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1154,10 +1163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1388,6 +1397,23 @@
         <v>50</v>
       </c>
     </row>
+    <row r="11" spans="2:8">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="OneConfig.xlsx"/>

--- a/Design/Excel/GameHot/Datas/__tables__.xlsx
+++ b/Design/Excel/GameHot/Datas/__tables__.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="21000" windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -209,6 +209,15 @@
   </si>
   <si>
     <t>CardPile.xlsx</t>
+  </si>
+  <si>
+    <t>DTCardConfig</t>
+  </si>
+  <si>
+    <t>DRCardConfig</t>
+  </si>
+  <si>
+    <t>CardConfig.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1163,10 +1172,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1414,6 +1423,23 @@
         <v>50</v>
       </c>
     </row>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="OneConfig.xlsx"/>
